--- a/biology/Biologie cellulaire et moléculaire/SYBR_Green_I/SYBR_Green_I.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/SYBR_Green_I/SYBR_Green_I.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le SYBR Green I est un composé organique aromatique de formule chimique C32H37N4S faisant partie des cyanines asymétriques (fluorophores). Il a la capacité de se lier aux acides nucléiques et d'émettre une fluorescence. Il est de ce fait utilisé en biologie moléculaire comme agent fluorescent, notamment lors de la réalisation de PCR quantitatives.
@@ -512,7 +524,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SYBR green I est une molécule pouvant se fixer sur tous les types d’acides nucléiques double brin. Ce n'est pas un agent intercalant : par définition, un agent intercalant est une molécule pouvant s'insérer entre les plateaux formés par les bases appariées d'un acide nucléique ; le SYBR green ne répond pas à cette définition puisqu'il se lie au petit sillon de l'ADN.
 Une fois fixé, il devient un très bon fluorophore. Ainsi, le complexe ADN double brin/SYBR green I absorbe la lumière bleue (λmax = 497 nm) et émet de la lumière verte (λmax = 520 nm). L'agent peut également se lier préférentiellement à de l'ADN double brin mais peut également se lier à de l'ADN simple brin avec des performances moindres et des longueurs d'onde d'excitation et d'émission légèrement différentes.
@@ -544,9 +558,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Compte tenu de ces propriétés et de sa toxicité moindre[3], il a très rapidement servi de méthode alternative au bromure d'éthidium (BET) ou au marquage radioactif pour un grand nombre de méthodes, dont la détection d’ADN et d’ARN sur gels de polyacrylamide ou d’agarose, classique, en champ pulsé ou « sensible », pré- ou post-marqué. Il permet également de quantifier les acides nucléiques en solution et, n’interférant que peu avec la réaction en chaîne par polymérase, il est le principal marqueur séquence aspécifique utilisé en PCR en temps réel. Sa très grande sensibilité le rend exploitable en électrophorèse capillaire (détection jusqu’à 80 femtogrammes d’ADN double brin), en cytométrie de flux, pour des puces à ADN, pour de l’imagerie en fluorescence. Il sert également à la quantification d’activités enzymatiques (DNases, télomérases) ou pour celles de l’ADN double brin en milieu défavorable (par la présence d’inhibiteur de fluorescence).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Compte tenu de ces propriétés et de sa toxicité moindre, il a très rapidement servi de méthode alternative au bromure d'éthidium (BET) ou au marquage radioactif pour un grand nombre de méthodes, dont la détection d’ADN et d’ARN sur gels de polyacrylamide ou d’agarose, classique, en champ pulsé ou « sensible », pré- ou post-marqué. Il permet également de quantifier les acides nucléiques en solution et, n’interférant que peu avec la réaction en chaîne par polymérase, il est le principal marqueur séquence aspécifique utilisé en PCR en temps réel. Sa très grande sensibilité le rend exploitable en électrophorèse capillaire (détection jusqu’à 80 femtogrammes d’ADN double brin), en cytométrie de flux, pour des puces à ADN, pour de l’imagerie en fluorescence. Il sert également à la quantification d’activités enzymatiques (DNases, télomérases) ou pour celles de l’ADN double brin en milieu défavorable (par la présence d’inhibiteur de fluorescence).
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Par souci de clarté, les dates correspondent à la première publication sur le domaine et seuls les premiers auteurs sont cités, les références complètes étant dans le chapitre Bibliographie.
 1975 : Invention d’un test de détection des agents mutagènes et carcinogènes par Ames BN (révisé dans une étude de 1983).
@@ -620,7 +638,9 @@
           <t>Toxicité et consigne de sécurité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SYBR Green présente une mutagénicité non nulle mais cependant très inférieure au bromure d'éthidium.
 Les précautions d'usage doivent être néanmoins conservées.
